--- a/learn_chinese2026.xlsx
+++ b/learn_chinese2026.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="751"/>
+    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="751" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20260208" sheetId="73" r:id="rId1"/>
+    <sheet name="20260215" sheetId="74" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -129,6 +130,69 @@
   </si>
   <si>
     <t>Xièxie!</t>
+  </si>
+  <si>
+    <t>A. 春节快到了，你准备怎么庆祝？</t>
+  </si>
+  <si>
+    <t>A. The Spring Festival is coming soon. How do you plan to celebrate?</t>
+  </si>
+  <si>
+    <t>Chūnjié kuài dào le, nǐ zhǔnbèi zěnme qìngzhù?</t>
+  </si>
+  <si>
+    <t>B: 今年我们全家要一起吃年夜饭。</t>
+  </si>
+  <si>
+    <t>B: This year, our whole family will have the New Year's Eve dinner together.</t>
+  </si>
+  <si>
+    <t>Jīnnián wǒmen quánjiā yào yìqǐ chī niányèfàn.</t>
+  </si>
+  <si>
+    <t>A: 真期待啊！记得去年放鞭炮很有趣。</t>
+  </si>
+  <si>
+    <t>A: Can't wait! Remember last year when we set off firecrackers—it was so much fun.</t>
+  </si>
+  <si>
+    <t>Zhēn qīdài a! Jìde qùnián fàng biānpào hěn yǒuqù.</t>
+  </si>
+  <si>
+    <t>B: 是啊，今年我们还要包饺子。</t>
+  </si>
+  <si>
+    <t>B: Yeah, we're going to make dumplings again this year.</t>
+  </si>
+  <si>
+    <t>Shì a, jīnnián wǒmen hái yào bāo jiǎozi.</t>
+  </si>
+  <si>
+    <t>A: 我喜欢吃饺子。红包准备好了吗？</t>
+  </si>
+  <si>
+    <t>A: I love eating dumplings. Are the red envelopes ready?</t>
+  </si>
+  <si>
+    <t>Wǒ xǐhuān chī jiǎozi. Hóngbāo zhǔnbèi hǎo le ma?</t>
+  </si>
+  <si>
+    <t>B: 当然，我已经包好了红包给孩子们。</t>
+  </si>
+  <si>
+    <t>B: Of course, I've already packed the red envelopes for the kids.</t>
+  </si>
+  <si>
+    <t>Dāngrán, wǒ yǐjīng bāo hǎo le hóngbāo gěi háizimen.</t>
+  </si>
+  <si>
+    <t>A:太好了！春节总是让人开心</t>
+  </si>
+  <si>
+    <t>A: Great! The Spring Festival always brings joy</t>
+  </si>
+  <si>
+    <t>Tài hǎo le! Chūnjié zǒngshì ràng rén kāixīn</t>
   </si>
 </sst>
 </file>
@@ -141,7 +205,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -155,12 +219,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -647,16 +705,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,118 +726,115 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -784,11 +842,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1392,8 +1450,8 @@
   <sheetPr/>
   <dimension ref="B1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1428,7 +1486,6 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="V6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1442,7 +1499,6 @@
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="V9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1459,7 +1515,6 @@
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1"/>
       <c r="V12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1526,7 +1581,6 @@
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="1"/>
       <c r="V24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1540,7 +1594,6 @@
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="1"/>
       <c r="V27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1554,7 +1607,6 @@
       <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="1"/>
       <c r="V30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1571,7 +1623,6 @@
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="1"/>
       <c r="V33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1581,6 +1632,154 @@
       <c r="C34" s="1" t="s">
         <v>33</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:AC33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22">
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="U15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="2:26">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="2:26">
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="U18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26">
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26">
+      <c r="Z20"/>
+    </row>
+    <row r="21" spans="2:26">
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="U21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26">
+      <c r="C22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V22" s="4"/>
+    </row>
+    <row r="23" spans="2:26">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="30" spans="2:26">
+      <c r="B30"/>
+    </row>
+    <row r="32" spans="2:26">
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="29:29">
+      <c r="AC33" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/learn_chinese2026.xlsx
+++ b/learn_chinese2026.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="751" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="751" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="20260208" sheetId="73" r:id="rId1"/>
     <sheet name="20260215" sheetId="74" r:id="rId2"/>
+    <sheet name="20260222" sheetId="75" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -193,6 +194,123 @@
   </si>
   <si>
     <t>Tài hǎo le! Chūnjié zǒngshì ràng rén kāixīn</t>
+  </si>
+  <si>
+    <t>A：你知道机器人是什么吗？</t>
+  </si>
+  <si>
+    <t>A: Do you know what a robot is?</t>
+  </si>
+  <si>
+    <t>Nǐ zhī dào jī qì rén shì shén me ma?</t>
+  </si>
+  <si>
+    <t>B：知道呀，机器人是一种智能机器。</t>
+  </si>
+  <si>
+    <t>BYes, a robot is a kind of intelligent machine.</t>
+  </si>
+  <si>
+    <t>Zhī dào ya, jī qì rén shì yì zhǒng zhì néng jī qì</t>
+  </si>
+  <si>
+    <t>A：它们能做什么呢？</t>
+  </si>
+  <si>
+    <t>A: What can they do?</t>
+  </si>
+  <si>
+    <t>A: Tā men néng zuò shén me ne?</t>
+  </si>
+  <si>
+    <t>B：它们能帮助人们做很多工作。</t>
+  </si>
+  <si>
+    <t>B: They can help people do a lot of work.</t>
+  </si>
+  <si>
+    <t>Tā men néng bāng zhù rén men zuò hěn duō gōng zuò。</t>
+  </si>
+  <si>
+    <t>A：比如在工厂里吗？</t>
+  </si>
+  <si>
+    <t>A: For example, in factories?</t>
+  </si>
+  <si>
+    <t>Bǐ rú zài gōng chǎng lǐ ma?</t>
+  </si>
+  <si>
+    <t>B：对，工厂里的机器人会组装产品。</t>
+  </si>
+  <si>
+    <t>B: Yes, robots in factories can assemble products.</t>
+  </si>
+  <si>
+    <t>Duì, gōng chǎng lǐ de jī qì rén huì zǔ zhuāng chǎn pǐn。</t>
+  </si>
+  <si>
+    <t>A：家里也有机器人吗？</t>
+  </si>
+  <si>
+    <t>A: Are there robots at home too?</t>
+  </si>
+  <si>
+    <t>A: Jiā lǐ yě yǒu jī qì rén ma?</t>
+  </si>
+  <si>
+    <t>B：有的，扫地机器人可以帮忙打扫卫生。</t>
+  </si>
+  <si>
+    <t>B: Yes, cleaning robots can help clean the house.</t>
+  </si>
+  <si>
+    <t>Yǒu de, sǎo dì jī qì rén kě yǐ bāng máng dǎ sǎo wèi shēng。</t>
+  </si>
+  <si>
+    <t>A：机器人也会学习吗？</t>
+  </si>
+  <si>
+    <t>A: Can robots learn too?</t>
+  </si>
+  <si>
+    <t>A: Jī qì rén yě huì xué xí ma?</t>
+  </si>
+  <si>
+    <t>B：它们会通过程序变得越来越聪明。</t>
+  </si>
+  <si>
+    <t>B: They can become smarter and smarter through programs.</t>
+  </si>
+  <si>
+    <t>B: Tā men huì tōng guò chéng xù biàn de yuè lái yuè cōng ming。</t>
+  </si>
+  <si>
+    <t>A：机器人真的太厉害了。</t>
+  </si>
+  <si>
+    <t>A: Robots are really amazing.</t>
+  </si>
+  <si>
+    <t>A: Jī qì rén zhēn de tài lì hài le。</t>
+  </si>
+  <si>
+    <t>B：是啊，它们是人类的好帮手。</t>
+  </si>
+  <si>
+    <t>B: Yes, they are good helpers for humans.</t>
+  </si>
+  <si>
+    <t>Shì a, tā men shì rén lèi de hǎo bāng shǒu。</t>
+  </si>
+  <si>
+    <t>A：我真喜欢这些聪明的机器人。</t>
+  </si>
+  <si>
+    <t>A: I really like these clever robots.</t>
+  </si>
+  <si>
+    <t>A: Wǒ zhēn xǐ huan zhè xiē cōng ming de jī qì rén。</t>
   </si>
 </sst>
 </file>
@@ -842,10 +960,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1509,7 +1627,7 @@
       </c>
     </row>
     <row r="11" spans="2:22">
-      <c r="C11" s="3"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="2:22">
       <c r="B12" s="1" t="s">
@@ -1537,10 +1655,10 @@
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V16" s="4"/>
+      <c r="V16" s="3"/>
     </row>
     <row r="17" spans="2:26">
-      <c r="C17" s="4"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:26">
       <c r="B18" s="1" t="s">
@@ -1563,16 +1681,16 @@
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="4"/>
       <c r="V21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:26">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V22" s="4"/>
+      <c r="V22" s="3"/>
     </row>
     <row r="23" spans="2:26">
       <c r="B23" s="2"/>
@@ -1626,7 +1744,7 @@
       <c r="V33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AC33" s="4"/>
+      <c r="AC33" s="3"/>
     </row>
     <row r="34" spans="2:29">
       <c r="C34" s="1" t="s">
@@ -1645,7 +1763,7 @@
   <sheetPr/>
   <dimension ref="B1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -1704,7 +1822,7 @@
       </c>
     </row>
     <row r="11" spans="2:22">
-      <c r="C11" s="3"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="2:22">
       <c r="B12" s="1" t="s">
@@ -1732,10 +1850,10 @@
       <c r="C16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="V16" s="4"/>
+      <c r="V16" s="3"/>
     </row>
     <row r="17" spans="2:26">
-      <c r="C17" s="4"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:26">
       <c r="B18" s="1" t="s">
@@ -1758,16 +1876,16 @@
       <c r="B21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="4"/>
       <c r="U21" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:26">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="V22" s="4"/>
+      <c r="V22" s="3"/>
     </row>
     <row r="23" spans="2:26">
       <c r="B23" s="2"/>
@@ -1779,7 +1897,210 @@
       <c r="C32" s="7"/>
     </row>
     <row r="33" spans="29:29">
-      <c r="AC33" s="4"/>
+      <c r="AC33" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:AC28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22">
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22">
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="C6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="P11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="B13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="P13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="P15" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="C16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="2:29">
+      <c r="B17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29">
+      <c r="C18" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29">
+      <c r="B19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29">
+      <c r="C20" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29">
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29">
+      <c r="C22" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29">
+      <c r="B23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC23" s="3"/>
+    </row>
+    <row r="24" spans="2:29">
+      <c r="C24" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29">
+      <c r="B25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29">
+      <c r="C26" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29">
+      <c r="B27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29">
+      <c r="C28" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
